--- a/trunk/EM2008/email_tippy.xlsx
+++ b/trunk/EM2008/email_tippy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="email_tippy" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">email_tippy!$A$1:$B$458</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">email_tippy!$A$1:$B$457</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="376">
   <si>
     <t>por@gmx.ch</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>info@alainbenoit.com</t>
-  </si>
-  <si>
-    <t>info@killbill3.ch</t>
   </si>
   <si>
     <t>info@rolihofer.com</t>
@@ -1969,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B458"/>
+  <dimension ref="A2:B457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2015,7 +2012,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2023,7 +2020,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2175,7 +2172,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -2207,7 +2204,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2223,7 +2220,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2335,7 +2332,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -2359,7 +2356,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -2439,7 +2436,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -2455,7 +2452,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -2487,7 +2484,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2535,7 +2532,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -2583,7 +2580,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -2615,7 +2612,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -2735,7 +2732,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -2743,7 +2740,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -2759,7 +2756,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -2767,7 +2764,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2783,7 +2780,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -2799,7 +2796,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -2807,7 +2804,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -2839,7 +2836,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2983,7 +2980,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -2991,7 +2988,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -3007,7 +3004,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -3031,7 +3028,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -3095,7 +3092,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -3151,7 +3148,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
@@ -3159,7 +3156,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -3191,7 +3188,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -3199,7 +3196,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -3231,7 +3228,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>344</v>
+        <v>88</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -3239,7 +3236,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
@@ -3255,7 +3252,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -3295,7 +3292,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -3319,7 +3316,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -3327,7 +3324,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -3335,7 +3332,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -3343,7 +3340,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -3351,7 +3348,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>363</v>
+        <v>96</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -3375,7 +3372,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -3383,7 +3380,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -3399,7 +3396,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -3407,7 +3404,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -3415,7 +3412,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -3423,7 +3420,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -3439,7 +3436,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -3447,7 +3444,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -3463,7 +3460,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>339</v>
+        <v>101</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -3479,7 +3476,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -3487,7 +3484,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -3511,7 +3508,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -3519,7 +3516,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -3527,7 +3524,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -3535,7 +3532,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>299</v>
+        <v>105</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -3543,7 +3540,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -3575,7 +3572,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -3591,7 +3588,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -3599,7 +3596,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -3607,7 +3604,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -3615,7 +3612,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -3639,7 +3636,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -3655,7 +3652,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -3663,7 +3660,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>114</v>
+        <v>336</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -3671,7 +3668,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -3679,7 +3676,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -3687,7 +3684,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -3703,7 +3700,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -3759,7 +3756,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -3767,7 +3764,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>347</v>
+        <v>121</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -3791,7 +3788,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -3799,7 +3796,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -3815,7 +3812,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -3823,7 +3820,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -3839,7 +3836,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -3847,7 +3844,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -3863,7 +3860,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -3879,7 +3876,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -3919,7 +3916,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
@@ -3943,7 +3940,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -3951,7 +3948,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
@@ -3959,7 +3956,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -3983,7 +3980,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -3991,7 +3988,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -4015,7 +4012,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -4047,7 +4044,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -4055,7 +4052,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -4063,7 +4060,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -4071,7 +4068,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -4079,7 +4076,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>336</v>
+        <v>141</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -4151,7 +4148,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -4183,7 +4180,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -4207,7 +4204,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>318</v>
+        <v>152</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
@@ -4239,7 +4236,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -4279,7 +4276,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -4343,7 +4340,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -4383,7 +4380,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
@@ -4423,7 +4420,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -4431,7 +4428,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -4439,7 +4436,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -4455,7 +4452,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="B312" t="s">
         <v>2</v>
@@ -4487,7 +4484,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B315" t="s">
         <v>2</v>
@@ -4503,7 +4500,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="B317" t="s">
         <v>2</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>350</v>
+        <v>176</v>
       </c>
       <c r="B318" t="s">
         <v>2</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B319" t="s">
         <v>2</v>
@@ -4543,7 +4540,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B322" t="s">
         <v>2</v>
@@ -4559,7 +4556,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
@@ -4567,7 +4564,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="B325" t="s">
         <v>2</v>
@@ -4575,7 +4572,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
@@ -4599,7 +4596,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B329" t="s">
         <v>2</v>
@@ -4623,7 +4620,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
       <c r="B332" t="s">
         <v>2</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="B333" t="s">
         <v>2</v>
@@ -4639,7 +4636,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="B334" t="s">
         <v>2</v>
@@ -4647,7 +4644,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="B335" t="s">
         <v>2</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="B336" t="s">
         <v>2</v>
@@ -4663,7 +4660,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B337" t="s">
         <v>2</v>
@@ -4695,7 +4692,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="B341" t="s">
         <v>2</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -4719,7 +4716,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
@@ -4743,7 +4740,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>193</v>
+        <v>360</v>
       </c>
       <c r="B347" t="s">
         <v>2</v>
@@ -4751,7 +4748,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="B348" t="s">
         <v>2</v>
@@ -4759,7 +4756,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="B349" t="s">
         <v>2</v>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="B350" t="s">
         <v>2</v>
@@ -4807,7 +4804,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B355" t="s">
         <v>2</v>
@@ -4823,7 +4820,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="B357" t="s">
         <v>2</v>
@@ -4831,7 +4828,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="B358" t="s">
         <v>2</v>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="B360" t="s">
         <v>2</v>
@@ -4855,7 +4852,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="B361" t="s">
         <v>2</v>
@@ -4863,7 +4860,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="B362" t="s">
         <v>2</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B363" t="s">
         <v>2</v>
@@ -4879,7 +4876,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="B364" t="s">
         <v>2</v>
@@ -4887,7 +4884,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="B365" t="s">
         <v>2</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B366" t="s">
         <v>2</v>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B369" t="s">
         <v>2</v>
@@ -4943,7 +4940,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B372" t="s">
         <v>2</v>
@@ -4967,7 +4964,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B375" t="s">
         <v>2</v>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B378" t="s">
         <v>2</v>
@@ -5015,7 +5012,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B381" t="s">
         <v>2</v>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="B382" t="s">
         <v>2</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="B383" t="s">
         <v>2</v>
@@ -5039,7 +5036,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B384" t="s">
         <v>2</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="B385" t="s">
         <v>2</v>
@@ -5063,7 +5060,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="B387" t="s">
         <v>2</v>
@@ -5071,7 +5068,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="B388" t="s">
         <v>2</v>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B390" t="s">
         <v>2</v>
@@ -5095,7 +5092,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="B391" t="s">
         <v>2</v>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B392" t="s">
         <v>2</v>
@@ -5111,7 +5108,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>334</v>
+        <v>218</v>
       </c>
       <c r="B393" t="s">
         <v>2</v>
@@ -5119,7 +5116,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>219</v>
+        <v>374</v>
       </c>
       <c r="B394" t="s">
         <v>2</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="B395" t="s">
         <v>2</v>
@@ -5151,7 +5148,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="B398" t="s">
         <v>2</v>
@@ -5159,7 +5156,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B399" t="s">
         <v>2</v>
@@ -5167,7 +5164,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B400" t="s">
         <v>2</v>
@@ -5175,7 +5172,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="B401" t="s">
         <v>2</v>
@@ -5183,7 +5180,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B402" t="s">
         <v>2</v>
@@ -5199,7 +5196,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="B404" t="s">
         <v>2</v>
@@ -5207,7 +5204,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="B405" t="s">
         <v>2</v>
@@ -5215,7 +5212,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="B406" t="s">
         <v>2</v>
@@ -5223,7 +5220,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B407" t="s">
         <v>2</v>
@@ -5231,7 +5228,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B408" t="s">
         <v>2</v>
@@ -5239,7 +5236,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="B409" t="s">
         <v>2</v>
@@ -5247,7 +5244,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>331</v>
+        <v>225</v>
       </c>
       <c r="B410" t="s">
         <v>2</v>
@@ -5255,7 +5252,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="B411" t="s">
         <v>2</v>
@@ -5263,7 +5260,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B412" t="s">
         <v>2</v>
@@ -5271,7 +5268,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="B413" t="s">
         <v>2</v>
@@ -5287,7 +5284,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B415" t="s">
         <v>2</v>
@@ -5303,7 +5300,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B417" t="s">
         <v>2</v>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="B418" t="s">
         <v>2</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B420" t="s">
         <v>2</v>
@@ -5335,7 +5332,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="B421" t="s">
         <v>2</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="B422" t="s">
         <v>2</v>
@@ -5351,7 +5348,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="B423" t="s">
         <v>2</v>
@@ -5359,7 +5356,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="B424" t="s">
         <v>2</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B425" t="s">
         <v>2</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B426" t="s">
         <v>2</v>
@@ -5383,7 +5380,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B427" t="s">
         <v>2</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="B428" t="s">
         <v>2</v>
@@ -5399,7 +5396,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>335</v>
+        <v>233</v>
       </c>
       <c r="B429" t="s">
         <v>2</v>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B434" t="s">
         <v>2</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B435" t="s">
         <v>2</v>
@@ -5455,7 +5452,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="B436" t="s">
         <v>2</v>
@@ -5463,7 +5460,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B437" t="s">
         <v>2</v>
@@ -5471,7 +5468,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="B438" t="s">
         <v>2</v>
@@ -5479,7 +5476,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B439" t="s">
         <v>2</v>
@@ -5495,7 +5492,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B441" t="s">
         <v>2</v>
@@ -5527,7 +5524,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="B445" t="s">
         <v>2</v>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B446" t="s">
         <v>2</v>
@@ -5543,7 +5540,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="B447" t="s">
         <v>2</v>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B449" t="s">
         <v>2</v>
@@ -5575,7 +5572,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="B451" t="s">
         <v>2</v>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B452" t="s">
         <v>2</v>
@@ -5591,7 +5588,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="B453" t="s">
         <v>2</v>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B455" t="s">
         <v>2</v>
@@ -5623,22 +5620,14 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B457" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
-      <c r="A458" t="s">
-        <v>249</v>
-      </c>
-      <c r="B458" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B458"/>
+  <autoFilter ref="A1:B457"/>
   <sortState ref="A4:B572">
     <sortCondition ref="A2"/>
   </sortState>

--- a/trunk/EM2008/email_tippy.xlsx
+++ b/trunk/EM2008/email_tippy.xlsx
@@ -10,14 +10,14 @@
     <sheet name="email_tippy" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">email_tippy!$A$1:$B$457</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">email_tippy!$A$1:$B$453</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="369">
   <si>
     <t>por@gmx.ch</t>
   </si>
@@ -55,9 +55,6 @@
     <t>antun.remeta@gmx.ch</t>
   </si>
   <si>
-    <t>ari.zehnder@zhdk.ch</t>
-  </si>
-  <si>
     <t>arne.stiel@ubs.com</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>guesnet@bluewin.ch</t>
   </si>
   <si>
-    <t>guido.knab@gmx.ch</t>
-  </si>
-  <si>
     <t>haege_10@hotmail.com</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>martin.zaengeler@gmx.ch</t>
   </si>
   <si>
-    <t>matt.keller@stud.unibas.ch</t>
-  </si>
-  <si>
     <t>matthias_prankl@hotmail.com</t>
   </si>
   <si>
@@ -769,9 +760,6 @@
     <t>lisa.46.w@gmail.com</t>
   </si>
   <si>
-    <t>Matthias_prankl@hotmail.com</t>
-  </si>
-  <si>
     <t>jonduri.hohl@gmail.com</t>
   </si>
   <si>
@@ -781,9 +769,6 @@
     <t>corsin.zander@gmail.com</t>
   </si>
   <si>
-    <t>Mirko.weisser@gmail.com</t>
-  </si>
-  <si>
     <t>marco.studinger@bluewin.ch</t>
   </si>
   <si>
@@ -883,9 +868,6 @@
     <t>stefanie.bachofen@ubs.com</t>
   </si>
   <si>
-    <t>Simon.oeschger@gmail.com</t>
-  </si>
-  <si>
     <t>simonjanett@msn.com</t>
   </si>
   <si>
@@ -940,9 +922,6 @@
     <t>sara.dasilva100@yahoo.com</t>
   </si>
   <si>
-    <t>Patrick-za.suter@ubs.com</t>
-  </si>
-  <si>
     <t>joshua.wettstein@gmail.com</t>
   </si>
   <si>
@@ -1108,9 +1087,6 @@
     <t>jonas.weber@hotmail.com</t>
   </si>
   <si>
-    <t>andreas.egger@buhlergroup.com</t>
-  </si>
-  <si>
     <t>fabian_fry0707@yahoo.co.jp</t>
   </si>
   <si>
@@ -1145,6 +1121,9 @@
   </si>
   <si>
     <t>cheeser@nexgo.de</t>
+  </si>
+  <si>
+    <t>meinhard.mueller@ubs.com</t>
   </si>
 </sst>
 </file>
@@ -1966,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B457"/>
+  <dimension ref="A2:B369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1988,7 +1967,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1996,7 +1975,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2004,7 +1983,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2012,7 +1991,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2020,7 +1999,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2028,7 +2007,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2036,7 +2015,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -2044,7 +2023,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -2052,7 +2031,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -2060,7 +2039,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2068,7 +2047,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -2076,7 +2055,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -2084,7 +2063,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2092,7 +2071,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2100,7 +2079,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2108,7 +2087,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2116,7 +2095,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2124,7 +2103,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2132,7 +2111,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2140,7 +2119,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2148,7 +2127,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2156,7 +2135,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2164,7 +2143,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -2172,7 +2151,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -2180,7 +2159,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -2188,7 +2167,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -2196,7 +2175,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -2204,7 +2183,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -2212,7 +2191,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -2220,7 +2199,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -2228,7 +2207,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -2236,7 +2215,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -2244,7 +2223,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -2252,7 +2231,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -2260,7 +2239,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -2268,7 +2247,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -2276,7 +2255,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -2284,7 +2263,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
@@ -2292,7 +2271,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -2300,7 +2279,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -2308,7 +2287,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -2316,7 +2295,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -2324,7 +2303,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -2332,7 +2311,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -2340,7 +2319,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -2348,7 +2327,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -2356,7 +2335,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -2364,7 +2343,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -2372,7 +2351,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -2380,7 +2359,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -2388,7 +2367,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -2396,7 +2375,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -2404,7 +2383,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -2412,7 +2391,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -2420,7 +2399,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -2428,7 +2407,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -2436,7 +2415,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -2444,7 +2423,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -2452,7 +2431,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -2460,7 +2439,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2468,7 +2447,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -2476,7 +2455,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -2484,7 +2463,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2492,7 +2471,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -2500,7 +2479,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2508,7 +2487,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2516,7 +2495,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -2524,7 +2503,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -2532,7 +2511,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2540,7 +2519,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2548,7 +2527,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -2556,7 +2535,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2564,7 +2543,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2572,7 +2551,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -2580,7 +2559,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -2588,7 +2567,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -2596,7 +2575,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2604,7 +2583,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -2612,7 +2591,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
@@ -2620,7 +2599,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -2628,7 +2607,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -2636,7 +2615,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -2644,7 +2623,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -2652,7 +2631,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -2660,7 +2639,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
@@ -2668,7 +2647,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>49</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -2676,7 +2655,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -2684,7 +2663,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>353</v>
+        <v>59</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -2692,7 +2671,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -2700,7 +2679,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -2708,7 +2687,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -2716,7 +2695,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -2724,7 +2703,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -2732,7 +2711,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -2740,7 +2719,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -2748,7 +2727,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -2756,7 +2735,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -2764,7 +2743,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2772,7 +2751,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -2780,7 +2759,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -2788,7 +2767,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -2796,7 +2775,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -2804,7 +2783,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -2812,7 +2791,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -2820,7 +2799,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>334</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -2828,7 +2807,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -2836,7 +2815,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>369</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -2844,7 +2823,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -2852,7 +2831,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -2860,7 +2839,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
@@ -2868,7 +2847,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -2876,7 +2855,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -2884,7 +2863,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -2892,7 +2871,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -2900,7 +2879,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -2908,7 +2887,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2916,7 +2895,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>302</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -2924,7 +2903,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -2932,7 +2911,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -2940,7 +2919,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -2948,7 +2927,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -2956,7 +2935,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -2964,7 +2943,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2972,7 +2951,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -2980,7 +2959,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -2988,7 +2967,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>86</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -2996,7 +2975,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -3004,7 +2983,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -3012,7 +2991,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -3020,7 +2999,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -3028,7 +3007,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -3036,7 +3015,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -3044,7 +3023,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>73</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -3052,7 +3031,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -3060,7 +3039,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
@@ -3068,7 +3047,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -3076,7 +3055,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
@@ -3084,7 +3063,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -3092,7 +3071,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -3100,7 +3079,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -3108,7 +3087,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
@@ -3116,7 +3095,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -3124,7 +3103,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
@@ -3132,7 +3111,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -3140,7 +3119,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -3148,7 +3127,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
@@ -3156,7 +3135,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
@@ -3164,7 +3143,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -3172,7 +3151,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B151" t="s">
         <v>2</v>
@@ -3180,7 +3159,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B152" t="s">
         <v>2</v>
@@ -3188,7 +3167,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -3196,7 +3175,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -3204,7 +3183,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
@@ -3212,7 +3191,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>350</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
@@ -3220,7 +3199,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -3228,7 +3207,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -3236,7 +3215,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B159" t="s">
         <v>2</v>
@@ -3244,7 +3223,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -3252,7 +3231,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -3260,7 +3239,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -3268,7 +3247,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -3276,7 +3255,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>91</v>
+        <v>291</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -3284,7 +3263,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>92</v>
+        <v>348</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -3292,7 +3271,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -3300,7 +3279,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
@@ -3308,7 +3287,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -3316,7 +3295,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -3324,7 +3303,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -3332,7 +3311,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -3340,7 +3319,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
@@ -3348,7 +3327,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -3356,7 +3335,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -3364,7 +3343,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -3372,7 +3351,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -3380,7 +3359,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -3388,7 +3367,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -3396,7 +3375,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -3404,7 +3383,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>99</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
         <v>2</v>
@@ -3412,7 +3391,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>314</v>
+        <v>119</v>
       </c>
       <c r="B181" t="s">
         <v>2</v>
@@ -3420,7 +3399,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B182" t="s">
         <v>2</v>
@@ -3428,7 +3407,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="B183" t="s">
         <v>2</v>
@@ -3436,7 +3415,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
@@ -3444,7 +3423,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="B185" t="s">
         <v>2</v>
@@ -3452,7 +3431,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -3460,7 +3439,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -3468,7 +3447,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="B188" t="s">
         <v>2</v>
@@ -3476,7 +3455,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B189" t="s">
         <v>2</v>
@@ -3484,7 +3463,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -3492,7 +3471,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -3500,7 +3479,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B192" t="s">
         <v>2</v>
@@ -3508,7 +3487,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B193" t="s">
         <v>2</v>
@@ -3516,7 +3495,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="B194" t="s">
         <v>2</v>
@@ -3524,7 +3503,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -3532,7 +3511,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
@@ -3540,7 +3519,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B197" t="s">
         <v>2</v>
@@ -3548,7 +3527,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B198" t="s">
         <v>2</v>
@@ -3556,7 +3535,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B199" t="s">
         <v>2</v>
@@ -3564,7 +3543,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="B200" t="s">
         <v>2</v>
@@ -3572,7 +3551,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B201" t="s">
         <v>2</v>
@@ -3580,7 +3559,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B202" t="s">
         <v>2</v>
@@ -3588,7 +3567,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -3596,7 +3575,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B204" t="s">
         <v>2</v>
@@ -3604,7 +3583,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="B205" t="s">
         <v>2</v>
@@ -3612,7 +3591,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B206" t="s">
         <v>2</v>
@@ -3620,7 +3599,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B207" t="s">
         <v>2</v>
@@ -3628,7 +3607,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="B208" t="s">
         <v>2</v>
@@ -3636,7 +3615,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B209" t="s">
         <v>2</v>
@@ -3644,7 +3623,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B210" t="s">
         <v>2</v>
@@ -3652,7 +3631,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>113</v>
+        <v>320</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -3660,7 +3639,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
@@ -3668,7 +3647,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="B213" t="s">
         <v>2</v>
@@ -3676,7 +3655,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
@@ -3684,7 +3663,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
@@ -3692,7 +3671,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B216" t="s">
         <v>2</v>
@@ -3700,7 +3679,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
@@ -3708,7 +3687,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
@@ -3716,7 +3695,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -3724,7 +3703,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
@@ -3732,7 +3711,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
@@ -3740,7 +3719,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
@@ -3748,7 +3727,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B223" t="s">
         <v>2</v>
@@ -3756,7 +3735,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="B224" t="s">
         <v>2</v>
@@ -3764,7 +3743,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="B225" t="s">
         <v>2</v>
@@ -3772,7 +3751,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
         <v>2</v>
@@ -3780,7 +3759,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -3788,7 +3767,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="B228" t="s">
         <v>2</v>
@@ -3796,7 +3775,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B229" t="s">
         <v>2</v>
@@ -3804,7 +3783,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B230" t="s">
         <v>2</v>
@@ -3812,7 +3791,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B231" t="s">
         <v>2</v>
@@ -3820,7 +3799,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B232" t="s">
         <v>2</v>
@@ -3828,7 +3807,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="B233" t="s">
         <v>2</v>
@@ -3836,7 +3815,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="B234" t="s">
         <v>2</v>
@@ -3844,7 +3823,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -3852,7 +3831,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="B236" t="s">
         <v>2</v>
@@ -3860,7 +3839,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B237" t="s">
         <v>2</v>
@@ -3868,7 +3847,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>366</v>
+        <v>158</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -3876,7 +3855,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B239" t="s">
         <v>2</v>
@@ -3884,7 +3863,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -3892,7 +3871,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -3900,7 +3879,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B242" t="s">
         <v>2</v>
@@ -3908,7 +3887,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -3916,7 +3895,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B244" t="s">
         <v>2</v>
@@ -3924,7 +3903,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B245" t="s">
         <v>2</v>
@@ -3932,7 +3911,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B246" t="s">
         <v>2</v>
@@ -3940,7 +3919,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -3948,7 +3927,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
@@ -3956,7 +3935,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -3964,7 +3943,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
@@ -3972,7 +3951,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -3980,7 +3959,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -3988,7 +3967,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>348</v>
+        <v>171</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -3996,7 +3975,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -4004,7 +3983,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -4012,7 +3991,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -4020,7 +3999,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -4028,7 +4007,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
@@ -4036,7 +4015,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -4044,7 +4023,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -4052,7 +4031,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -4060,7 +4039,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -4068,7 +4047,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>335</v>
+        <v>178</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -4076,7 +4055,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -4084,7 +4063,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -4092,7 +4071,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>142</v>
+        <v>343</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -4100,7 +4079,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
@@ -4108,7 +4087,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -4116,7 +4095,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
@@ -4124,7 +4103,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="B270" t="s">
         <v>2</v>
@@ -4132,7 +4111,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -4140,7 +4119,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -4148,7 +4127,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -4156,7 +4135,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
@@ -4164,7 +4143,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -4172,7 +4151,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -4180,7 +4159,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
@@ -4188,7 +4167,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
@@ -4196,7 +4175,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -4204,7 +4183,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>317</v>
+        <v>190</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -4212,7 +4191,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
@@ -4220,7 +4199,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
@@ -4228,7 +4207,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
@@ -4236,7 +4215,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -4244,7 +4223,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
@@ -4252,7 +4231,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -4260,7 +4239,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -4268,7 +4247,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -4276,7 +4255,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -4284,7 +4263,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -4292,7 +4271,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -4300,7 +4279,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -4308,7 +4287,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
@@ -4316,7 +4295,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
@@ -4324,7 +4303,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -4332,7 +4311,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
@@ -4340,7 +4319,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -4348,7 +4327,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B298" t="s">
         <v>2</v>
@@ -4356,7 +4335,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -4364,7 +4343,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="B300" t="s">
         <v>2</v>
@@ -4372,7 +4351,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -4380,7 +4359,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
@@ -4388,7 +4367,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -4396,7 +4375,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B304" t="s">
         <v>2</v>
@@ -4404,7 +4383,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
@@ -4412,7 +4391,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
@@ -4420,7 +4399,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -4428,7 +4407,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -4436,7 +4415,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -4444,7 +4423,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="B310" t="s">
         <v>2</v>
@@ -4452,7 +4431,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
@@ -4460,7 +4439,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="B312" t="s">
         <v>2</v>
@@ -4468,7 +4447,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="B313" t="s">
         <v>2</v>
@@ -4476,7 +4455,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>174</v>
+        <v>347</v>
       </c>
       <c r="B314" t="s">
         <v>2</v>
@@ -4484,7 +4463,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="B315" t="s">
         <v>2</v>
@@ -4492,7 +4471,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B316" t="s">
         <v>2</v>
@@ -4500,7 +4479,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B317" t="s">
         <v>2</v>
@@ -4508,7 +4487,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="B318" t="s">
         <v>2</v>
@@ -4516,7 +4495,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="B319" t="s">
         <v>2</v>
@@ -4524,7 +4503,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="B320" t="s">
         <v>2</v>
@@ -4532,7 +4511,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>178</v>
+        <v>271</v>
       </c>
       <c r="B321" t="s">
         <v>2</v>
@@ -4540,7 +4519,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="B322" t="s">
         <v>2</v>
@@ -4548,7 +4527,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="B323" t="s">
         <v>2</v>
@@ -4556,7 +4535,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
@@ -4564,7 +4543,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="B325" t="s">
         <v>2</v>
@@ -4572,7 +4551,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>352</v>
+        <v>221</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -4580,7 +4559,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
@@ -4588,7 +4567,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="B328" t="s">
         <v>2</v>
@@ -4596,7 +4575,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="B329" t="s">
         <v>2</v>
@@ -4604,7 +4583,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="B330" t="s">
         <v>2</v>
@@ -4612,7 +4591,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="B331" t="s">
         <v>2</v>
@@ -4620,7 +4599,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="B332" t="s">
         <v>2</v>
@@ -4628,7 +4607,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="B333" t="s">
         <v>2</v>
@@ -4636,7 +4615,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B334" t="s">
         <v>2</v>
@@ -4644,7 +4623,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="B335" t="s">
         <v>2</v>
@@ -4652,7 +4631,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="B336" t="s">
         <v>2</v>
@@ -4660,7 +4639,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="B337" t="s">
         <v>2</v>
@@ -4668,7 +4647,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="B338" t="s">
         <v>2</v>
@@ -4676,7 +4655,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="B339" t="s">
         <v>2</v>
@@ -4684,7 +4663,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="B340" t="s">
         <v>2</v>
@@ -4692,7 +4671,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="B341" t="s">
         <v>2</v>
@@ -4700,7 +4679,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -4708,7 +4687,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="B343" t="s">
         <v>2</v>
@@ -4716,7 +4695,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
@@ -4724,7 +4703,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="B345" t="s">
         <v>2</v>
@@ -4732,7 +4711,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="B346" t="s">
         <v>2</v>
@@ -4740,7 +4719,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="B347" t="s">
         <v>2</v>
@@ -4748,7 +4727,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B348" t="s">
         <v>2</v>
@@ -4756,7 +4735,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B349" t="s">
         <v>2</v>
@@ -4764,7 +4743,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="B350" t="s">
         <v>2</v>
@@ -4772,7 +4751,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B351" t="s">
         <v>2</v>
@@ -4780,7 +4759,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="B352" t="s">
         <v>2</v>
@@ -4788,7 +4767,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="B353" t="s">
         <v>2</v>
@@ -4796,7 +4775,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="B354" t="s">
         <v>2</v>
@@ -4804,7 +4783,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="B355" t="s">
         <v>2</v>
@@ -4812,7 +4791,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B356" t="s">
         <v>2</v>
@@ -4820,7 +4799,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>371</v>
+        <v>237</v>
       </c>
       <c r="B357" t="s">
         <v>2</v>
@@ -4828,7 +4807,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="B358" t="s">
         <v>2</v>
@@ -4836,7 +4815,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="B359" t="s">
         <v>2</v>
@@ -4844,7 +4823,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
       <c r="B360" t="s">
         <v>2</v>
@@ -4852,7 +4831,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B361" t="s">
         <v>2</v>
@@ -4860,7 +4839,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="B362" t="s">
         <v>2</v>
@@ -4868,7 +4847,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="B363" t="s">
         <v>2</v>
@@ -4876,7 +4855,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="B364" t="s">
         <v>2</v>
@@ -4884,7 +4863,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="B365" t="s">
         <v>2</v>
@@ -4892,7 +4871,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="B366" t="s">
         <v>2</v>
@@ -4900,7 +4879,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="B367" t="s">
         <v>2</v>
@@ -4908,7 +4887,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="B368" t="s">
         <v>2</v>
@@ -4916,718 +4895,14 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B369" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>206</v>
-      </c>
-      <c r="B370" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
-        <v>207</v>
-      </c>
-      <c r="B371" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s">
-        <v>207</v>
-      </c>
-      <c r="B372" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>208</v>
-      </c>
-      <c r="B373" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
-        <v>209</v>
-      </c>
-      <c r="B374" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
-        <v>209</v>
-      </c>
-      <c r="B375" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="s">
-        <v>210</v>
-      </c>
-      <c r="B376" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
-        <v>211</v>
-      </c>
-      <c r="B377" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="s">
-        <v>211</v>
-      </c>
-      <c r="B378" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
-        <v>212</v>
-      </c>
-      <c r="B379" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>213</v>
-      </c>
-      <c r="B380" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>213</v>
-      </c>
-      <c r="B381" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>344</v>
-      </c>
-      <c r="B382" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="s">
-        <v>306</v>
-      </c>
-      <c r="B383" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" t="s">
-        <v>303</v>
-      </c>
-      <c r="B384" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" t="s">
-        <v>214</v>
-      </c>
-      <c r="B385" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="s">
-        <v>215</v>
-      </c>
-      <c r="B386" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" t="s">
-        <v>342</v>
-      </c>
-      <c r="B387" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" t="s">
-        <v>216</v>
-      </c>
-      <c r="B388" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" t="s">
-        <v>217</v>
-      </c>
-      <c r="B389" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
-        <v>217</v>
-      </c>
-      <c r="B390" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
-        <v>354</v>
-      </c>
-      <c r="B391" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" t="s">
-        <v>333</v>
-      </c>
-      <c r="B392" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" t="s">
-        <v>218</v>
-      </c>
-      <c r="B393" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="s">
-        <v>374</v>
-      </c>
-      <c r="B394" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="A395" t="s">
-        <v>219</v>
-      </c>
-      <c r="B395" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="A396" t="s">
-        <v>220</v>
-      </c>
-      <c r="B396" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="A397" t="s">
-        <v>221</v>
-      </c>
-      <c r="B397" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="A398" t="s">
-        <v>288</v>
-      </c>
-      <c r="B398" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="A399" t="s">
-        <v>276</v>
-      </c>
-      <c r="B399" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="A400" t="s">
-        <v>289</v>
-      </c>
-      <c r="B400" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
-      <c r="A401" t="s">
-        <v>222</v>
-      </c>
-      <c r="B401" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402" t="s">
-        <v>222</v>
-      </c>
-      <c r="B402" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
-      <c r="A403" t="s">
-        <v>223</v>
-      </c>
-      <c r="B403" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" t="s">
-        <v>293</v>
-      </c>
-      <c r="B404" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" t="s">
-        <v>224</v>
-      </c>
-      <c r="B405" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" t="s">
-        <v>270</v>
-      </c>
-      <c r="B406" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" t="s">
-        <v>260</v>
-      </c>
-      <c r="B407" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" t="s">
-        <v>287</v>
-      </c>
-      <c r="B408" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" t="s">
-        <v>330</v>
-      </c>
-      <c r="B409" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>225</v>
-      </c>
-      <c r="B410" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
-        <v>291</v>
-      </c>
-      <c r="B411" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
-      <c r="A412" t="s">
-        <v>304</v>
-      </c>
-      <c r="B412" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
-        <v>226</v>
-      </c>
-      <c r="B413" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
-        <v>227</v>
-      </c>
-      <c r="B414" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
-        <v>227</v>
-      </c>
-      <c r="B415" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
-        <v>228</v>
-      </c>
-      <c r="B416" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>302</v>
-      </c>
-      <c r="B417" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2">
-      <c r="A418" t="s">
-        <v>229</v>
-      </c>
-      <c r="B418" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2">
-      <c r="A419" t="s">
-        <v>230</v>
-      </c>
-      <c r="B419" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
-      <c r="A420" t="s">
-        <v>230</v>
-      </c>
-      <c r="B420" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
-        <v>340</v>
-      </c>
-      <c r="B421" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
-        <v>231</v>
-      </c>
-      <c r="B422" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>311</v>
-      </c>
-      <c r="B423" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>266</v>
-      </c>
-      <c r="B424" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>275</v>
-      </c>
-      <c r="B425" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>232</v>
-      </c>
-      <c r="B426" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>232</v>
-      </c>
-      <c r="B427" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>334</v>
-      </c>
-      <c r="B428" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>233</v>
-      </c>
-      <c r="B429" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
-      <c r="A430" t="s">
-        <v>234</v>
-      </c>
-      <c r="B430" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>235</v>
-      </c>
-      <c r="B431" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" t="s">
-        <v>236</v>
-      </c>
-      <c r="B432" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" t="s">
-        <v>237</v>
-      </c>
-      <c r="B433" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" t="s">
-        <v>237</v>
-      </c>
-      <c r="B434" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" t="s">
-        <v>283</v>
-      </c>
-      <c r="B435" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" t="s">
-        <v>370</v>
-      </c>
-      <c r="B436" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" t="s">
-        <v>356</v>
-      </c>
-      <c r="B437" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" t="s">
-        <v>238</v>
-      </c>
-      <c r="B438" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" t="s">
-        <v>238</v>
-      </c>
-      <c r="B439" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>239</v>
-      </c>
-      <c r="B440" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" t="s">
-        <v>239</v>
-      </c>
-      <c r="B441" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" t="s">
-        <v>240</v>
-      </c>
-      <c r="B442" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>241</v>
-      </c>
-      <c r="B443" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>242</v>
-      </c>
-      <c r="B444" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>284</v>
-      </c>
-      <c r="B445" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>312</v>
-      </c>
-      <c r="B446" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
-      <c r="A447" t="s">
-        <v>243</v>
-      </c>
-      <c r="B447" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>244</v>
-      </c>
-      <c r="B448" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>244</v>
-      </c>
-      <c r="B449" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>245</v>
-      </c>
-      <c r="B450" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
-      <c r="A451" t="s">
-        <v>292</v>
-      </c>
-      <c r="B451" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" t="s">
-        <v>310</v>
-      </c>
-      <c r="B452" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
-      <c r="A453" t="s">
-        <v>246</v>
-      </c>
-      <c r="B453" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" t="s">
-        <v>247</v>
-      </c>
-      <c r="B454" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
-      <c r="A455" t="s">
-        <v>247</v>
-      </c>
-      <c r="B455" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" t="s">
-        <v>248</v>
-      </c>
-      <c r="B456" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
-      <c r="A457" t="s">
-        <v>248</v>
-      </c>
-      <c r="B457" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B457"/>
+  <autoFilter ref="A1:B453"/>
   <sortState ref="A4:B572">
     <sortCondition ref="A2"/>
   </sortState>
